--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H2">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I2">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J2">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="N2">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="O2">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="P2">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="Q2">
-        <v>78.23947743180555</v>
+        <v>38.29938303213989</v>
       </c>
       <c r="R2">
-        <v>704.1552968862501</v>
+        <v>344.694447289259</v>
       </c>
       <c r="S2">
-        <v>0.009190061554471629</v>
+        <v>0.007109102727553473</v>
       </c>
       <c r="T2">
-        <v>0.009190061554471631</v>
+        <v>0.007109102727553472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H3">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I3">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J3">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.151378</v>
       </c>
       <c r="O3">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="P3">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="Q3">
-        <v>0.66733116098</v>
+        <v>1.179476016518</v>
       </c>
       <c r="R3">
-        <v>6.005980448820001</v>
+        <v>10.615284148662</v>
       </c>
       <c r="S3">
-        <v>7.838516626045528E-05</v>
+        <v>0.0002189334527680387</v>
       </c>
       <c r="T3">
-        <v>7.83851662604553E-05</v>
+        <v>0.0002189334527680387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H4">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I4">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J4">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>231.078796</v>
       </c>
       <c r="O4">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="P4">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="Q4">
-        <v>71.67781822280445</v>
+        <v>126.6871269520538</v>
       </c>
       <c r="R4">
-        <v>645.1003640052401</v>
+        <v>1140.184142568484</v>
       </c>
       <c r="S4">
-        <v>0.008419324657835967</v>
+        <v>0.02351556940238361</v>
       </c>
       <c r="T4">
-        <v>0.008419324657835969</v>
+        <v>0.02351556940238361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>132.462531</v>
       </c>
       <c r="I5">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J5">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="N5">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="O5">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="P5">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="Q5">
-        <v>3712.374656474876</v>
+        <v>1028.181833730739</v>
       </c>
       <c r="R5">
-        <v>33411.37190827388</v>
+        <v>9253.636503576652</v>
       </c>
       <c r="S5">
-        <v>0.4360580198915735</v>
+        <v>0.1908503401337358</v>
       </c>
       <c r="T5">
-        <v>0.4360580198915736</v>
+        <v>0.1908503401337358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>132.462531</v>
       </c>
       <c r="I6">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J6">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.151378</v>
       </c>
       <c r="O6">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="P6">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="Q6">
         <v>31.664108335302</v>
@@ -818,10 +818,10 @@
         <v>284.9769750177181</v>
       </c>
       <c r="S6">
-        <v>0.00371928742651072</v>
+        <v>0.005877468019344932</v>
       </c>
       <c r="T6">
-        <v>0.003719287426510722</v>
+        <v>0.005877468019344932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>132.462531</v>
       </c>
       <c r="I7">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J7">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>231.078796</v>
       </c>
       <c r="O7">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="P7">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="Q7">
         <v>3401.031353176965</v>
@@ -880,10 +880,10 @@
         <v>30609.28217859268</v>
       </c>
       <c r="S7">
-        <v>0.399487426429031</v>
+        <v>0.6312968866646084</v>
       </c>
       <c r="T7">
-        <v>0.399487426429031</v>
+        <v>0.6312968866646083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>22.577421</v>
       </c>
       <c r="I8">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J8">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="N8">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="O8">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="P8">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="Q8">
-        <v>632.7513516177918</v>
+        <v>175.2472487838157</v>
       </c>
       <c r="R8">
-        <v>5694.762164560126</v>
+        <v>1577.225239054341</v>
       </c>
       <c r="S8">
-        <v>0.07432339863352323</v>
+        <v>0.03252926276331342</v>
       </c>
       <c r="T8">
-        <v>0.07432339863352323</v>
+        <v>0.03252926276331342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>22.577421</v>
       </c>
       <c r="I9">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J9">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.151378</v>
       </c>
       <c r="O9">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="P9">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="Q9">
         <v>5.396951870682001</v>
@@ -1004,10 +1004,10 @@
         <v>48.57256683613801</v>
       </c>
       <c r="S9">
-        <v>0.000633929590612602</v>
+        <v>0.001001778154811089</v>
       </c>
       <c r="T9">
-        <v>0.0006339295906126021</v>
+        <v>0.001001778154811089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>22.577421</v>
       </c>
       <c r="I10">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J10">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>231.078796</v>
       </c>
       <c r="O10">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="P10">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="Q10">
         <v>579.6848068294574</v>
@@ -1066,10 +1066,10 @@
         <v>5217.163261465116</v>
       </c>
       <c r="S10">
-        <v>0.06809016665018093</v>
+        <v>0.1076006586814814</v>
       </c>
       <c r="T10">
-        <v>0.06809016665018094</v>
+        <v>0.1076006586814814</v>
       </c>
     </row>
   </sheetData>
